--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H2">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I2">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J2">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5981746666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N2">
-        <v>1.794524</v>
+        <v>0.044102</v>
       </c>
       <c r="O2">
-        <v>0.02144965888565845</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P2">
-        <v>0.02144965888565845</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q2">
-        <v>11.03886563989956</v>
+        <v>0.5563071215037778</v>
       </c>
       <c r="R2">
-        <v>99.34979075909602</v>
+        <v>5.006764093534001</v>
       </c>
       <c r="S2">
-        <v>0.007282106334847613</v>
+        <v>0.000271903660637174</v>
       </c>
       <c r="T2">
-        <v>0.007282106334847611</v>
+        <v>0.000271903660637174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H3">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I3">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J3">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.769802</v>
       </c>
       <c r="O3">
-        <v>0.2482581275160803</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P3">
-        <v>0.2482581275160803</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q3">
-        <v>127.7637154171898</v>
+        <v>261.9923986400482</v>
       </c>
       <c r="R3">
-        <v>1149.873438754708</v>
+        <v>2357.931587760434</v>
       </c>
       <c r="S3">
-        <v>0.08428302252727218</v>
+        <v>0.1280528138068409</v>
       </c>
       <c r="T3">
-        <v>0.08428302252727216</v>
+        <v>0.1280528138068409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H4">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I4">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J4">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.20726666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N4">
-        <v>60.6218</v>
+        <v>61.065872</v>
       </c>
       <c r="O4">
-        <v>0.7246026974476848</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P4">
-        <v>0.7246026974476848</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q4">
-        <v>372.9099778263556</v>
+        <v>770.2911313418471</v>
       </c>
       <c r="R4">
-        <v>3356.1898004372</v>
+        <v>6932.620182076624</v>
       </c>
       <c r="S4">
-        <v>0.2460008301977934</v>
+        <v>0.3764916361344406</v>
       </c>
       <c r="T4">
-        <v>0.2460008301977933</v>
+        <v>0.3764916361344406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.45425133333334</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H5">
-        <v>55.362754</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I5">
-        <v>0.3394975357727733</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J5">
-        <v>0.3394975357727731</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1586656666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N5">
-        <v>0.475997</v>
+        <v>0.044102</v>
       </c>
       <c r="O5">
-        <v>0.005689516150576289</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P5">
-        <v>0.005689516150576288</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q5">
-        <v>2.928056090637556</v>
+        <v>0.2335392988711111</v>
       </c>
       <c r="R5">
-        <v>26.352504815738</v>
+        <v>2.10185368984</v>
       </c>
       <c r="S5">
-        <v>0.001931576712860045</v>
+        <v>0.0001141459237373126</v>
       </c>
       <c r="T5">
-        <v>0.001931576712860044</v>
+        <v>0.0001141459237373126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J6">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5981746666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N6">
-        <v>1.794524</v>
+        <v>20.769802</v>
       </c>
       <c r="O6">
-        <v>0.02144965888565845</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P6">
-        <v>0.02144965888565845</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q6">
-        <v>9.50278619489778</v>
+        <v>109.9851479926489</v>
       </c>
       <c r="R6">
-        <v>85.52507575408002</v>
+        <v>989.8663319338398</v>
       </c>
       <c r="S6">
-        <v>0.006268787192992523</v>
+        <v>0.05375693245501525</v>
       </c>
       <c r="T6">
-        <v>0.006268787192992523</v>
+        <v>0.05375693245501526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J7">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.923267333333333</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N7">
-        <v>20.769802</v>
+        <v>61.065872</v>
       </c>
       <c r="O7">
-        <v>0.2482581275160803</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P7">
-        <v>0.2482581275160803</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q7">
-        <v>109.9851479926489</v>
+        <v>323.3703898198044</v>
       </c>
       <c r="R7">
-        <v>989.8663319338401</v>
+        <v>2910.333508378239</v>
       </c>
       <c r="S7">
-        <v>0.07255487738174049</v>
+        <v>0.1580522508789736</v>
       </c>
       <c r="T7">
-        <v>0.07255487738174048</v>
+        <v>0.1580522508789736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.88630666666667</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H8">
-        <v>47.65892000000001</v>
+        <v>56.300266</v>
       </c>
       <c r="I8">
-        <v>0.292255798864192</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J8">
-        <v>0.2922557988641919</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>20.20726666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N8">
-        <v>60.6218</v>
+        <v>0.044102</v>
       </c>
       <c r="O8">
-        <v>0.7246026974476848</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P8">
-        <v>0.7246026974476848</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q8">
-        <v>321.0188351617778</v>
+        <v>0.2758838145702222</v>
       </c>
       <c r="R8">
-        <v>2889.169516456001</v>
+        <v>2.482954331132</v>
       </c>
       <c r="S8">
-        <v>0.2117693402017215</v>
+        <v>0.0001348424569676866</v>
       </c>
       <c r="T8">
-        <v>0.2117693402017215</v>
+        <v>0.0001348424569676866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.88630666666667</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H9">
-        <v>47.65892000000001</v>
+        <v>56.300266</v>
       </c>
       <c r="I9">
-        <v>0.292255798864192</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J9">
-        <v>0.2922557988641919</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1586656666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N9">
-        <v>0.475997</v>
+        <v>20.769802</v>
       </c>
       <c r="O9">
-        <v>0.005689516150576289</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P9">
-        <v>0.005689516150576288</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q9">
-        <v>2.520611438137778</v>
+        <v>129.9272641519258</v>
       </c>
       <c r="R9">
-        <v>22.68550294324</v>
+        <v>1169.345377367332</v>
       </c>
       <c r="S9">
-        <v>0.001662794087737395</v>
+        <v>0.06350394840171351</v>
       </c>
       <c r="T9">
-        <v>0.001662794087737395</v>
+        <v>0.06350394840171353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H10">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5981746666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N10">
-        <v>1.794524</v>
+        <v>61.065872</v>
       </c>
       <c r="O10">
-        <v>0.02144965888565845</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P10">
-        <v>0.02144965888565845</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q10">
-        <v>9.086845839214224</v>
+        <v>382.0027596802169</v>
       </c>
       <c r="R10">
-        <v>81.78161255292802</v>
+        <v>3438.024837121952</v>
       </c>
       <c r="S10">
-        <v>0.005994400132052669</v>
+        <v>0.1867097233085632</v>
       </c>
       <c r="T10">
-        <v>0.005994400132052667</v>
+        <v>0.1867097233085633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.19095733333334</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H11">
-        <v>45.572872</v>
+        <v>7.401455</v>
       </c>
       <c r="I11">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J11">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>6.923267333333333</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N11">
-        <v>20.769802</v>
+        <v>0.044102</v>
       </c>
       <c r="O11">
-        <v>0.2482581275160803</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P11">
-        <v>0.2482581275160803</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q11">
-        <v>105.1710586679271</v>
+        <v>0.03626877426777778</v>
       </c>
       <c r="R11">
-        <v>946.539528011344</v>
+        <v>0.32641896841</v>
       </c>
       <c r="S11">
-        <v>0.06937912440931844</v>
+        <v>1.772692117184257E-05</v>
       </c>
       <c r="T11">
-        <v>0.06937912440931841</v>
+        <v>1.772692117184257E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.19095733333334</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H12">
-        <v>45.572872</v>
+        <v>7.401455</v>
       </c>
       <c r="I12">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J12">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.20726666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N12">
-        <v>60.6218</v>
+        <v>20.769802</v>
       </c>
       <c r="O12">
-        <v>0.7246026974476848</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P12">
-        <v>0.7246026974476848</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q12">
-        <v>306.9677257566223</v>
+        <v>17.08075054021222</v>
       </c>
       <c r="R12">
-        <v>2762.7095318096</v>
+        <v>153.72675486191</v>
       </c>
       <c r="S12">
-        <v>0.2025001203245375</v>
+        <v>0.008348479497727499</v>
       </c>
       <c r="T12">
-        <v>0.2025001203245375</v>
+        <v>0.008348479497727499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.19095733333334</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H13">
-        <v>45.572872</v>
+        <v>7.401455</v>
       </c>
       <c r="I13">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J13">
-        <v>0.2794636578608068</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1586656666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N13">
-        <v>0.475997</v>
+        <v>61.065872</v>
       </c>
       <c r="O13">
-        <v>0.005689516150576289</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P13">
-        <v>0.005689516150576288</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q13">
-        <v>2.410283372598223</v>
+        <v>50.21958929375111</v>
       </c>
       <c r="R13">
-        <v>21.692550353384</v>
+        <v>451.97630364376</v>
       </c>
       <c r="S13">
-        <v>0.001590012994898187</v>
+        <v>0.02454559655421134</v>
       </c>
       <c r="T13">
-        <v>0.001590012994898186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.826026</v>
-      </c>
-      <c r="H14">
-        <v>14.478078</v>
-      </c>
-      <c r="I14">
-        <v>0.08878300750222795</v>
-      </c>
-      <c r="J14">
-        <v>0.08878300750222794</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.5981746666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.794524</v>
-      </c>
-      <c r="O14">
-        <v>0.02144965888565845</v>
-      </c>
-      <c r="P14">
-        <v>0.02144965888565845</v>
-      </c>
-      <c r="Q14">
-        <v>2.886806493874667</v>
-      </c>
-      <c r="R14">
-        <v>25.981258444872</v>
-      </c>
-      <c r="S14">
-        <v>0.001904365225765645</v>
-      </c>
-      <c r="T14">
-        <v>0.001904365225765644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.826026</v>
-      </c>
-      <c r="H15">
-        <v>14.478078</v>
-      </c>
-      <c r="I15">
-        <v>0.08878300750222795</v>
-      </c>
-      <c r="J15">
-        <v>0.08878300750222794</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.923267333333333</v>
-      </c>
-      <c r="N15">
-        <v>20.769802</v>
-      </c>
-      <c r="O15">
-        <v>0.2482581275160803</v>
-      </c>
-      <c r="P15">
-        <v>0.2482581275160803</v>
-      </c>
-      <c r="Q15">
-        <v>33.41186815561733</v>
-      </c>
-      <c r="R15">
-        <v>300.706813400556</v>
-      </c>
-      <c r="S15">
-        <v>0.02204110319774922</v>
-      </c>
-      <c r="T15">
-        <v>0.02204110319774922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.826026</v>
-      </c>
-      <c r="H16">
-        <v>14.478078</v>
-      </c>
-      <c r="I16">
-        <v>0.08878300750222795</v>
-      </c>
-      <c r="J16">
-        <v>0.08878300750222794</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>20.20726666666667</v>
-      </c>
-      <c r="N16">
-        <v>60.6218</v>
-      </c>
-      <c r="O16">
-        <v>0.7246026974476848</v>
-      </c>
-      <c r="P16">
-        <v>0.7246026974476848</v>
-      </c>
-      <c r="Q16">
-        <v>97.52079432226665</v>
-      </c>
-      <c r="R16">
-        <v>877.6871489004</v>
-      </c>
-      <c r="S16">
-        <v>0.06433240672363241</v>
-      </c>
-      <c r="T16">
-        <v>0.0643324067236324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.826026</v>
-      </c>
-      <c r="H17">
-        <v>14.478078</v>
-      </c>
-      <c r="I17">
-        <v>0.08878300750222795</v>
-      </c>
-      <c r="J17">
-        <v>0.08878300750222794</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1586656666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.475997</v>
-      </c>
-      <c r="O17">
-        <v>0.005689516150576289</v>
-      </c>
-      <c r="P17">
-        <v>0.005689516150576288</v>
-      </c>
-      <c r="Q17">
-        <v>0.7657246326406667</v>
-      </c>
-      <c r="R17">
-        <v>6.891521693766</v>
-      </c>
-      <c r="S17">
-        <v>0.0005051323550806617</v>
-      </c>
-      <c r="T17">
-        <v>0.0005051323550806615</v>
+        <v>0.02454559655421134</v>
       </c>
     </row>
   </sheetData>
